--- a/data_rosemount/Flowering Plants and Tillers.xlsx
+++ b/data_rosemount/Flowering Plants and Tillers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio Mantoani\Desktop\Postdoc PhenoGrass\Data Google Drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8D716D-0D6E-4966-9CEA-BE641F7C7194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0AC777-5D52-4E7E-BC2A-FC0D22FDFF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{20A439D6-81A7-4574-99E2-83F862066D12}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Time</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
   </si>
 </sst>
 </file>
@@ -462,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83C8210-29EE-42FA-9AA3-BCCDE52D31B8}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.453125" style="1" bestFit="1" customWidth="1"/>
@@ -562,6 +565,23 @@
         <v>534</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1">
+        <v>147</v>
+      </c>
+      <c r="E6" s="1">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
